--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H2">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I2">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J2">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N2">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O2">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P2">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q2">
-        <v>0.1696187135375586</v>
+        <v>0.2253079442998889</v>
       </c>
       <c r="R2">
-        <v>0.1696187135375586</v>
+        <v>2.027771498699</v>
       </c>
       <c r="S2">
-        <v>3.298161249824514E-05</v>
+        <v>3.964583720120805E-05</v>
       </c>
       <c r="T2">
-        <v>3.298161249824514E-05</v>
+        <v>3.964583720120805E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H3">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I3">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J3">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N3">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O3">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P3">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q3">
-        <v>0.628829005133296</v>
+        <v>0.782790774535</v>
       </c>
       <c r="R3">
-        <v>0.628829005133296</v>
+        <v>7.045116970815</v>
       </c>
       <c r="S3">
-        <v>0.0001222730331012148</v>
+        <v>0.0001377421275856782</v>
       </c>
       <c r="T3">
-        <v>0.0001222730331012148</v>
+        <v>0.0001377421275856782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H4">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I4">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J4">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N4">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O4">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P4">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q4">
-        <v>195.8919157004522</v>
+        <v>241.0121225376695</v>
       </c>
       <c r="R4">
-        <v>195.8919157004522</v>
+        <v>2169.109102839026</v>
       </c>
       <c r="S4">
-        <v>0.03809032105258006</v>
+        <v>0.04240918980170538</v>
       </c>
       <c r="T4">
-        <v>0.03809032105258006</v>
+        <v>0.04240918980170538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H5">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I5">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J5">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N5">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O5">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P5">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q5">
-        <v>254.1160172182553</v>
+        <v>286.4339645695895</v>
       </c>
       <c r="R5">
-        <v>254.1160172182553</v>
+        <v>2577.905681126305</v>
       </c>
       <c r="S5">
-        <v>0.04941174139747294</v>
+        <v>0.05040174843150499</v>
       </c>
       <c r="T5">
-        <v>0.04941174139747294</v>
+        <v>0.05040174843150498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H6">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I6">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J6">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N6">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O6">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P6">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q6">
-        <v>69.44737807735333</v>
+        <v>78.927731904357</v>
       </c>
       <c r="R6">
-        <v>69.44737807735333</v>
+        <v>710.3495871392131</v>
       </c>
       <c r="S6">
-        <v>0.01350373708770766</v>
+        <v>0.01388835187087664</v>
       </c>
       <c r="T6">
-        <v>0.01350373708770766</v>
+        <v>0.01388835187087664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.04277059088176</v>
+        <v>1.174594333333333</v>
       </c>
       <c r="H7">
-        <v>1.04277059088176</v>
+        <v>3.523783</v>
       </c>
       <c r="I7">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519552</v>
       </c>
       <c r="J7">
-        <v>0.1013964295725235</v>
+        <v>0.1071304476519551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N7">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O7">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P7">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q7">
-        <v>1.210494808597264</v>
+        <v>1.442176710752778</v>
       </c>
       <c r="R7">
-        <v>1.210494808597264</v>
+        <v>12.979590396775</v>
       </c>
       <c r="S7">
-        <v>0.0002353753891633662</v>
+        <v>0.000253769583081259</v>
       </c>
       <c r="T7">
-        <v>0.0002353753891633662</v>
+        <v>0.000253769583081259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H8">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I8">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J8">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N8">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O8">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P8">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q8">
-        <v>0.3316982615529012</v>
+        <v>0.4153906201715555</v>
       </c>
       <c r="R8">
-        <v>0.3316982615529012</v>
+        <v>3.738515581544</v>
       </c>
       <c r="S8">
-        <v>6.449726743421459E-05</v>
+        <v>7.309333434026836E-05</v>
       </c>
       <c r="T8">
-        <v>6.449726743421459E-05</v>
+        <v>7.309333434026837E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H9">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I9">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J9">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N9">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O9">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P9">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q9">
-        <v>1.229707993101649</v>
+        <v>1.44319786996</v>
       </c>
       <c r="R9">
-        <v>1.229707993101649</v>
+        <v>12.98878082964</v>
       </c>
       <c r="S9">
-        <v>0.0002391113083491969</v>
+        <v>0.000253949269207338</v>
       </c>
       <c r="T9">
-        <v>0.0002391113083491969</v>
+        <v>0.000253949269207338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H10">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I10">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J10">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N10">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O10">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P10">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q10">
-        <v>383.0768818778926</v>
+        <v>444.3437418990062</v>
       </c>
       <c r="R10">
-        <v>383.0768818778926</v>
+        <v>3999.093677091056</v>
       </c>
       <c r="S10">
-        <v>0.07448761408236379</v>
+        <v>0.07818800933737112</v>
       </c>
       <c r="T10">
-        <v>0.07448761408236379</v>
+        <v>0.07818800933737113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H11">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I11">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J11">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N11">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O11">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P11">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q11">
-        <v>496.9371562022732</v>
+        <v>528.0860492978978</v>
       </c>
       <c r="R11">
-        <v>496.9371562022732</v>
+        <v>4752.774443681081</v>
       </c>
       <c r="S11">
-        <v>0.0966272434215468</v>
+        <v>0.09292354783028355</v>
       </c>
       <c r="T11">
-        <v>0.0966272434215468</v>
+        <v>0.09292354783028355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H12">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I12">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J12">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N12">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O12">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P12">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q12">
-        <v>135.8079783606212</v>
+        <v>145.515683463192</v>
       </c>
       <c r="R12">
-        <v>135.8079783606212</v>
+        <v>1309.641151168728</v>
       </c>
       <c r="S12">
-        <v>0.0264072638156653</v>
+        <v>0.02560536032020899</v>
       </c>
       <c r="T12">
-        <v>0.0264072638156653</v>
+        <v>0.025605360320209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03919240383451</v>
+        <v>2.165549333333333</v>
       </c>
       <c r="H13">
-        <v>2.03919240383451</v>
+        <v>6.496648</v>
       </c>
       <c r="I13">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="J13">
-        <v>0.1982860187736884</v>
+        <v>0.1975118242176602</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N13">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O13">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P13">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q13">
-        <v>2.367185879768014</v>
+        <v>2.658879517711111</v>
       </c>
       <c r="R13">
-        <v>2.367185879768014</v>
+        <v>23.9299156594</v>
       </c>
       <c r="S13">
-        <v>0.0004602888783290902</v>
+        <v>0.0004678641262488908</v>
       </c>
       <c r="T13">
-        <v>0.0004602888783290902</v>
+        <v>0.0004678641262488909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H14">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I14">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J14">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N14">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O14">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P14">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q14">
-        <v>0.04023500255423298</v>
+        <v>0.018102600474</v>
       </c>
       <c r="R14">
-        <v>0.04023500255423298</v>
+        <v>0.162923404266</v>
       </c>
       <c r="S14">
-        <v>7.823519206303703E-06</v>
+        <v>3.185385910562717E-06</v>
       </c>
       <c r="T14">
-        <v>7.823519206303703E-06</v>
+        <v>3.185385910562718E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H15">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I15">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J15">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N15">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O15">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P15">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q15">
-        <v>0.1491635922713892</v>
+        <v>0.06289413669</v>
       </c>
       <c r="R15">
-        <v>0.1491635922713892</v>
+        <v>0.56604723021</v>
       </c>
       <c r="S15">
-        <v>2.900420417380322E-05</v>
+        <v>1.106703410689942E-05</v>
       </c>
       <c r="T15">
-        <v>2.900420417380322E-05</v>
+        <v>1.106703410689943E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H16">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I16">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J16">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N16">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O16">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P16">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q16">
-        <v>46.46722973061601</v>
+        <v>19.364368962876</v>
       </c>
       <c r="R16">
-        <v>46.46722973061601</v>
+        <v>174.279320665884</v>
       </c>
       <c r="S16">
-        <v>0.009035348357967342</v>
+        <v>0.003407410341396854</v>
       </c>
       <c r="T16">
-        <v>0.009035348357967342</v>
+        <v>0.003407410341396854</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H17">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I17">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J17">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N17">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O17">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P17">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q17">
-        <v>60.27848218282849</v>
+        <v>23.01383397243</v>
       </c>
       <c r="R17">
-        <v>60.27848218282849</v>
+        <v>207.12450575187</v>
       </c>
       <c r="S17">
-        <v>0.01172088562560759</v>
+        <v>0.004049580754383728</v>
       </c>
       <c r="T17">
-        <v>0.01172088562560759</v>
+        <v>0.004049580754383728</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H18">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I18">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J18">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N18">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O18">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P18">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q18">
-        <v>16.4735091786224</v>
+        <v>6.341530483638</v>
       </c>
       <c r="R18">
-        <v>16.4735091786224</v>
+        <v>57.07377435274201</v>
       </c>
       <c r="S18">
-        <v>0.003203201373740526</v>
+        <v>0.001115874036053394</v>
       </c>
       <c r="T18">
-        <v>0.003203201373740526</v>
+        <v>0.001115874036053394</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.247354059658732</v>
+        <v>0.094374</v>
       </c>
       <c r="H19">
-        <v>0.247354059658732</v>
+        <v>0.283122</v>
       </c>
       <c r="I19">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="J19">
-        <v>0.02405209612639365</v>
+        <v>0.008607506932213717</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N19">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O19">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P19">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q19">
-        <v>0.2871396716790457</v>
+        <v>0.11587318365</v>
       </c>
       <c r="R19">
-        <v>0.2871396716790457</v>
+        <v>1.04285865285</v>
       </c>
       <c r="S19">
-        <v>5.583304569807746E-05</v>
+        <v>2.038938036227889E-05</v>
       </c>
       <c r="T19">
-        <v>5.583304569807746E-05</v>
+        <v>2.03893803622789E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.95477870006102</v>
+        <v>0.2991183333333333</v>
       </c>
       <c r="H20">
-        <v>6.95477870006102</v>
+        <v>0.897355</v>
       </c>
       <c r="I20">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="J20">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N20">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O20">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P20">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q20">
-        <v>1.13127530288829</v>
+        <v>0.05737618075722222</v>
       </c>
       <c r="R20">
-        <v>1.13127530288829</v>
+        <v>0.516385626815</v>
       </c>
       <c r="S20">
-        <v>0.0002199715048565951</v>
+        <v>1.0096078629612E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002199715048565951</v>
+        <v>1.0096078629612E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.95477870006102</v>
+        <v>0.2991183333333333</v>
       </c>
       <c r="H21">
-        <v>6.95477870006102</v>
+        <v>0.897355</v>
       </c>
       <c r="I21">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="J21">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N21">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O21">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P21">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q21">
-        <v>4.19398725771842</v>
+        <v>0.199342926475</v>
       </c>
       <c r="R21">
-        <v>4.19398725771842</v>
+        <v>1.794086338275</v>
       </c>
       <c r="S21">
-        <v>0.0008155023680569158</v>
+        <v>3.507695760483725E-05</v>
       </c>
       <c r="T21">
-        <v>0.0008155023680569158</v>
+        <v>3.507695760483726E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.95477870006102</v>
+        <v>0.2991183333333333</v>
       </c>
       <c r="H22">
-        <v>6.95477870006102</v>
+        <v>0.897355</v>
       </c>
       <c r="I22">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="J22">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N22">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O22">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P22">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q22">
-        <v>1306.504934777294</v>
+        <v>61.37535518497888</v>
       </c>
       <c r="R22">
-        <v>1306.504934777294</v>
+        <v>552.3781966648099</v>
       </c>
       <c r="S22">
-        <v>0.2540441357393516</v>
+        <v>0.01079978492276889</v>
       </c>
       <c r="T22">
-        <v>0.2540441357393516</v>
+        <v>0.01079978492276889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.95477870006102</v>
+        <v>0.2991183333333333</v>
       </c>
       <c r="H23">
-        <v>6.95477870006102</v>
+        <v>0.897355</v>
       </c>
       <c r="I23">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="J23">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N23">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O23">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P23">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q23">
-        <v>1694.831710203322</v>
+        <v>72.94233222543612</v>
       </c>
       <c r="R23">
-        <v>1694.831710203322</v>
+        <v>656.480990028925</v>
       </c>
       <c r="S23">
-        <v>0.3295525685217895</v>
+        <v>0.01283514364072736</v>
       </c>
       <c r="T23">
-        <v>0.3295525685217895</v>
+        <v>0.01283514364072736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.95477870006102</v>
+        <v>0.2991183333333333</v>
       </c>
       <c r="H24">
-        <v>6.95477870006102</v>
+        <v>0.897355</v>
       </c>
       <c r="I24">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="J24">
-        <v>0.6762654555273945</v>
+        <v>0.02728148777967321</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N24">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O24">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P24">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q24">
-        <v>463.1806363267758</v>
+        <v>20.099476858545</v>
       </c>
       <c r="R24">
-        <v>463.1806363267758</v>
+        <v>180.895291726905</v>
       </c>
       <c r="S24">
-        <v>0.09006343666577608</v>
+        <v>0.003536762051775183</v>
       </c>
       <c r="T24">
-        <v>0.09006343666577608</v>
+        <v>0.003536762051775184</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2991183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.897355</v>
+      </c>
+      <c r="I25">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="J25">
+        <v>0.02728148777967321</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.227808333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.683425</v>
+      </c>
+      <c r="O25">
+        <v>0.002368790466606695</v>
+      </c>
+      <c r="P25">
+        <v>0.002368790466606696</v>
+      </c>
+      <c r="Q25">
+        <v>0.3672599823194444</v>
+      </c>
+      <c r="R25">
+        <v>3.305339840875</v>
+      </c>
+      <c r="S25">
+        <v>6.462412816733697E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.462412816733698E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.122905</v>
+      </c>
+      <c r="H26">
+        <v>0.368715</v>
+      </c>
+      <c r="I26">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J26">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1918176666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.575453</v>
+      </c>
+      <c r="O26">
+        <v>0.0003700706761723729</v>
+      </c>
+      <c r="P26">
+        <v>0.000370070676172373</v>
+      </c>
+      <c r="Q26">
+        <v>0.02357535032166667</v>
+      </c>
+      <c r="R26">
+        <v>0.212178152895</v>
+      </c>
+      <c r="S26">
+        <v>4.148386794431844E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.148386794431844E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.122905</v>
+      </c>
+      <c r="H27">
+        <v>0.368715</v>
+      </c>
+      <c r="I27">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J27">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.666435</v>
+      </c>
+      <c r="N27">
+        <v>1.999305</v>
+      </c>
+      <c r="O27">
+        <v>0.001285742107912907</v>
+      </c>
+      <c r="P27">
+        <v>0.001285742107912907</v>
+      </c>
+      <c r="Q27">
+        <v>0.081908193675</v>
+      </c>
+      <c r="R27">
+        <v>0.7371737430750001</v>
+      </c>
+      <c r="S27">
+        <v>1.441280253998425E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.441280253998425E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.122905</v>
+      </c>
+      <c r="H28">
+        <v>0.368715</v>
+      </c>
+      <c r="I28">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J28">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>205.1875406666666</v>
+      </c>
+      <c r="N28">
+        <v>615.5626219999999</v>
+      </c>
+      <c r="O28">
+        <v>0.3958649546530799</v>
+      </c>
+      <c r="P28">
+        <v>0.3958649546530799</v>
+      </c>
+      <c r="Q28">
+        <v>25.21857468563666</v>
+      </c>
+      <c r="R28">
+        <v>226.96717217073</v>
+      </c>
+      <c r="S28">
+        <v>0.00443753330376354</v>
+      </c>
+      <c r="T28">
+        <v>0.00443753330376354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.122905</v>
+      </c>
+      <c r="H29">
+        <v>0.368715</v>
+      </c>
+      <c r="I29">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J29">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>243.8577783333334</v>
+      </c>
+      <c r="N29">
+        <v>731.573335</v>
+      </c>
+      <c r="O29">
+        <v>0.4704708095241973</v>
+      </c>
+      <c r="P29">
+        <v>0.4704708095241973</v>
+      </c>
+      <c r="Q29">
+        <v>29.97134024605834</v>
+      </c>
+      <c r="R29">
+        <v>269.742062214525</v>
+      </c>
+      <c r="S29">
+        <v>0.005273843671112087</v>
+      </c>
+      <c r="T29">
+        <v>0.005273843671112086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.122905</v>
+      </c>
+      <c r="H30">
+        <v>0.368715</v>
+      </c>
+      <c r="I30">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J30">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>67.19573700000001</v>
+      </c>
+      <c r="N30">
+        <v>201.587211</v>
+      </c>
+      <c r="O30">
+        <v>0.1296396325720308</v>
+      </c>
+      <c r="P30">
+        <v>0.1296396325720308</v>
+      </c>
+      <c r="Q30">
+        <v>8.258692055985001</v>
+      </c>
+      <c r="R30">
+        <v>74.32822850386501</v>
+      </c>
+      <c r="S30">
+        <v>0.001453223328471214</v>
+      </c>
+      <c r="T30">
+        <v>0.001453223328471215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.122905</v>
+      </c>
+      <c r="H31">
+        <v>0.368715</v>
+      </c>
+      <c r="I31">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="J31">
+        <v>0.01120971495860859</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.227808333333333</v>
+      </c>
+      <c r="N31">
+        <v>3.683425</v>
+      </c>
+      <c r="O31">
+        <v>0.002368790466606695</v>
+      </c>
+      <c r="P31">
+        <v>0.002368790466606696</v>
+      </c>
+      <c r="Q31">
+        <v>0.1509037832083333</v>
+      </c>
+      <c r="R31">
+        <v>1.358134048875</v>
+      </c>
+      <c r="S31">
+        <v>2.655346592733049E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.655346592733049E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H32">
+        <v>21.322828</v>
+      </c>
+      <c r="I32">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J32">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.1918176666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.575453</v>
+      </c>
+      <c r="O32">
+        <v>0.0003700706761723729</v>
+      </c>
+      <c r="P32">
+        <v>0.000370070676172373</v>
+      </c>
+      <c r="Q32">
+        <v>1.363365037898222</v>
+      </c>
+      <c r="R32">
+        <v>12.270285341084</v>
+      </c>
+      <c r="S32">
+        <v>0.00023990165329629</v>
+      </c>
+      <c r="T32">
+        <v>0.00023990165329629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H33">
+        <v>21.322828</v>
+      </c>
+      <c r="I33">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J33">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.666435</v>
+      </c>
+      <c r="N33">
+        <v>1.999305</v>
+      </c>
+      <c r="O33">
+        <v>0.001285742107912907</v>
+      </c>
+      <c r="P33">
+        <v>0.001285742107912907</v>
+      </c>
+      <c r="Q33">
+        <v>4.73675962606</v>
+      </c>
+      <c r="R33">
+        <v>42.63083663454</v>
+      </c>
+      <c r="S33">
+        <v>0.0008334939168681701</v>
+      </c>
+      <c r="T33">
+        <v>0.0008334939168681702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H34">
+        <v>21.322828</v>
+      </c>
+      <c r="I34">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J34">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>205.1875406666666</v>
+      </c>
+      <c r="N34">
+        <v>615.5626219999999</v>
+      </c>
+      <c r="O34">
+        <v>0.3958649546530799</v>
+      </c>
+      <c r="P34">
+        <v>0.3958649546530799</v>
+      </c>
+      <c r="Q34">
+        <v>1458.392879126113</v>
+      </c>
+      <c r="R34">
+        <v>13125.53591213502</v>
+      </c>
+      <c r="S34">
+        <v>0.2566230269460741</v>
+      </c>
+      <c r="T34">
+        <v>0.2566230269460741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.95477870006102</v>
-      </c>
-      <c r="H25">
-        <v>6.95477870006102</v>
-      </c>
-      <c r="I25">
-        <v>0.6762654555273945</v>
-      </c>
-      <c r="J25">
-        <v>0.6762654555273945</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.16084479096565</v>
-      </c>
-      <c r="N25">
-        <v>1.16084479096565</v>
-      </c>
-      <c r="O25">
-        <v>0.002321338040754331</v>
-      </c>
-      <c r="P25">
-        <v>0.002321338040754331</v>
-      </c>
-      <c r="Q25">
-        <v>8.07341862628469</v>
-      </c>
-      <c r="R25">
-        <v>8.07341862628469</v>
-      </c>
-      <c r="S25">
-        <v>0.001569840727563797</v>
-      </c>
-      <c r="T25">
-        <v>0.001569840727563797</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H35">
+        <v>21.322828</v>
+      </c>
+      <c r="I35">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J35">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>243.8577783333334</v>
+      </c>
+      <c r="N35">
+        <v>731.573335</v>
+      </c>
+      <c r="O35">
+        <v>0.4704708095241973</v>
+      </c>
+      <c r="P35">
+        <v>0.4704708095241973</v>
+      </c>
+      <c r="Q35">
+        <v>1733.245821287931</v>
+      </c>
+      <c r="R35">
+        <v>15599.21239159138</v>
+      </c>
+      <c r="S35">
+        <v>0.3049869451961857</v>
+      </c>
+      <c r="T35">
+        <v>0.3049869451961857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H36">
+        <v>21.322828</v>
+      </c>
+      <c r="I36">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J36">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>67.19573700000001</v>
+      </c>
+      <c r="N36">
+        <v>201.587211</v>
+      </c>
+      <c r="O36">
+        <v>0.1296396325720308</v>
+      </c>
+      <c r="P36">
+        <v>0.1296396325720308</v>
+      </c>
+      <c r="Q36">
+        <v>477.6010474614121</v>
+      </c>
+      <c r="R36">
+        <v>4298.409427152709</v>
+      </c>
+      <c r="S36">
+        <v>0.08404006096464534</v>
+      </c>
+      <c r="T36">
+        <v>0.08404006096464536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.107609333333333</v>
+      </c>
+      <c r="H37">
+        <v>21.322828</v>
+      </c>
+      <c r="I37">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="J37">
+        <v>0.6482590184598892</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.227808333333333</v>
+      </c>
+      <c r="N37">
+        <v>3.683425</v>
+      </c>
+      <c r="O37">
+        <v>0.002368790466606695</v>
+      </c>
+      <c r="P37">
+        <v>0.002368790466606696</v>
+      </c>
+      <c r="Q37">
+        <v>8.726781969544444</v>
+      </c>
+      <c r="R37">
+        <v>78.5410377259</v>
+      </c>
+      <c r="S37">
+        <v>0.001535589782819599</v>
+      </c>
+      <c r="T37">
+        <v>0.001535589782819599</v>
       </c>
     </row>
   </sheetData>
